--- a/REGULAR/DOGELIO, MARIETTA.xlsx
+++ b/REGULAR/DOGELIO, MARIETTA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B1BC9F-5719-4D58-A1A9-C6BF9E9332B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="205">
   <si>
     <t>PERIOD</t>
   </si>
@@ -647,12 +646,15 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>10/16-18/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1512,7 +1514,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1555,7 +1557,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1619,7 +1621,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1679,7 +1681,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1745,7 +1747,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1808,7 +1810,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1906,7 +1908,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1965,7 +1967,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2030,7 +2032,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2073,7 +2075,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2148,7 +2150,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2334,7 +2336,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2400,7 +2402,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2458,7 +2460,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2524,7 +2526,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2580,7 +2582,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2655,7 +2657,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2698,7 +2700,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2764,7 +2766,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2820,7 +2822,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2918,7 +2920,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2981,7 +2983,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3030,7 +3032,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3047,25 +3049,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K257" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K259" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3077,13 +3079,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3092,14 +3094,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3403,7 +3405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3413,7 +3415,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3421,34 +3423,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K257"/>
+  <dimension ref="A2:K259"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A247" activePane="bottomLeft"/>
+      <pane ySplit="3570" topLeftCell="A247" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="N254" sqref="N254"/>
+      <selection pane="bottomLeft" activeCell="K258" sqref="K258"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3469,7 +3471,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3487,7 +3489,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3505,7 +3507,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3513,7 +3515,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3526,7 +3528,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -3543,7 +3545,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3578,7 +3580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3587,7 +3589,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>46.833000000000013</v>
+        <v>51.833000000000013</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3597,12 +3599,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>260.37</v>
+        <v>265.37</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -3624,7 +3626,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>39448</v>
       </c>
@@ -3650,7 +3652,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>49</v>
@@ -3670,7 +3672,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>39479</v>
       </c>
@@ -3694,7 +3696,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>39508</v>
       </c>
@@ -3714,7 +3716,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>39539</v>
       </c>
@@ -3734,7 +3736,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>39569</v>
       </c>
@@ -3758,7 +3760,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>52</v>
@@ -3778,7 +3780,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>39600</v>
       </c>
@@ -3798,7 +3800,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="15"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>39630</v>
       </c>
@@ -3818,7 +3820,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>39661</v>
       </c>
@@ -3842,7 +3844,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>39692</v>
       </c>
@@ -3862,7 +3864,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>39722</v>
       </c>
@@ -3888,7 +3890,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>55</v>
@@ -3910,7 +3912,7 @@
         <v>45209</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>56</v>
@@ -3930,7 +3932,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>39753</v>
       </c>
@@ -3950,7 +3952,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>39783</v>
       </c>
@@ -3974,7 +3976,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="47" t="s">
         <v>44</v>
       </c>
@@ -3996,7 +3998,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>39814</v>
       </c>
@@ -4020,7 +4022,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>59</v>
@@ -4040,7 +4042,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>39845</v>
       </c>
@@ -4060,7 +4062,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>39873</v>
       </c>
@@ -4084,7 +4086,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>39904</v>
       </c>
@@ -4104,7 +4106,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>39934</v>
       </c>
@@ -4124,7 +4126,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>39965</v>
       </c>
@@ -4148,7 +4150,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>39995</v>
       </c>
@@ -4168,7 +4170,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>40026</v>
       </c>
@@ -4192,7 +4194,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>40057</v>
       </c>
@@ -4212,7 +4214,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>40087</v>
       </c>
@@ -4238,7 +4240,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>40118</v>
       </c>
@@ -4258,7 +4260,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>40148</v>
       </c>
@@ -4282,7 +4284,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="47" t="s">
         <v>45</v>
       </c>
@@ -4304,7 +4306,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>40179</v>
       </c>
@@ -4324,7 +4326,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>40210</v>
       </c>
@@ -4344,7 +4346,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>40238</v>
       </c>
@@ -4364,7 +4366,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>40269</v>
       </c>
@@ -4388,7 +4390,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>55</v>
@@ -4410,7 +4412,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>51</v>
@@ -4430,7 +4432,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>40299</v>
       </c>
@@ -4450,7 +4452,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>40330</v>
       </c>
@@ -4470,7 +4472,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>40360</v>
       </c>
@@ -4496,7 +4498,7 @@
         <v>45133</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>68</v>
@@ -4518,7 +4520,7 @@
         <v>45142</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>69</v>
@@ -4538,7 +4540,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>40391</v>
       </c>
@@ -4564,7 +4566,7 @@
         <v>45161</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>70</v>
@@ -4586,7 +4588,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>40422</v>
       </c>
@@ -4608,7 +4610,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>68</v>
@@ -4628,7 +4630,7 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>71</v>
@@ -4650,7 +4652,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>72</v>
@@ -4670,7 +4672,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>40452</v>
       </c>
@@ -4696,7 +4698,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>74</v>
@@ -4716,7 +4718,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>40483</v>
       </c>
@@ -4742,7 +4744,7 @@
         <v>45232</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>40513</v>
       </c>
@@ -4766,7 +4768,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>77</v>
@@ -4788,7 +4790,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="47" t="s">
         <v>46</v>
       </c>
@@ -4810,7 +4812,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>40544</v>
       </c>
@@ -4836,7 +4838,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>90</v>
@@ -4856,7 +4858,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>40575</v>
       </c>
@@ -4880,7 +4882,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>91</v>
@@ -4902,7 +4904,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>40603</v>
       </c>
@@ -4926,7 +4928,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>40634</v>
       </c>
@@ -4950,7 +4952,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>40664</v>
       </c>
@@ -4976,7 +4978,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>51</v>
@@ -4996,7 +4998,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>97</v>
@@ -5018,7 +5020,7 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>40695</v>
       </c>
@@ -5044,7 +5046,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>98</v>
@@ -5064,7 +5066,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>40725</v>
       </c>
@@ -5090,7 +5092,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>40756</v>
       </c>
@@ -5116,7 +5118,7 @@
         <v>45148</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>100</v>
@@ -5138,7 +5140,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>40787</v>
       </c>
@@ -5164,7 +5166,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>40817</v>
       </c>
@@ -5190,7 +5192,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>102</v>
@@ -5210,7 +5212,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>40848</v>
       </c>
@@ -5234,7 +5236,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>40878</v>
       </c>
@@ -5260,7 +5262,7 @@
         <v>45286</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="47" t="s">
         <v>82</v>
       </c>
@@ -5282,7 +5284,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>40909</v>
       </c>
@@ -5306,7 +5308,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>40940</v>
       </c>
@@ -5332,7 +5334,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>113</v>
@@ -5352,7 +5354,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>40969</v>
       </c>
@@ -5376,7 +5378,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>41000</v>
       </c>
@@ -5400,7 +5402,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>41030</v>
       </c>
@@ -5426,7 +5428,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>51</v>
@@ -5446,7 +5448,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>64</v>
@@ -5466,7 +5468,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>55</v>
@@ -5488,7 +5490,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>68</v>
@@ -5510,7 +5512,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>117</v>
@@ -5530,7 +5532,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>41061</v>
       </c>
@@ -5554,7 +5556,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>41091</v>
       </c>
@@ -5578,7 +5580,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>41122</v>
       </c>
@@ -5604,7 +5606,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>120</v>
@@ -5624,7 +5626,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>41153</v>
       </c>
@@ -5650,7 +5652,7 @@
         <v>45197</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>121</v>
@@ -5674,7 +5676,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>41183</v>
       </c>
@@ -5702,7 +5704,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>41214</v>
       </c>
@@ -5728,7 +5730,7 @@
         <v>44547</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>123</v>
@@ -5748,7 +5750,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>41244</v>
       </c>
@@ -5772,7 +5774,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="47" t="s">
         <v>83</v>
       </c>
@@ -5794,7 +5796,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>41275</v>
       </c>
@@ -5820,7 +5822,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>133</v>
@@ -5840,7 +5842,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>41306</v>
       </c>
@@ -5860,7 +5862,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>41334</v>
       </c>
@@ -5880,7 +5882,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>41365</v>
       </c>
@@ -5904,7 +5906,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>41395</v>
       </c>
@@ -5928,7 +5930,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>135</v>
@@ -5950,7 +5952,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>41426</v>
       </c>
@@ -5976,7 +5978,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>41456</v>
       </c>
@@ -6000,7 +6002,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>41487</v>
       </c>
@@ -6024,7 +6026,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>41518</v>
       </c>
@@ -6052,7 +6054,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>41548</v>
       </c>
@@ -6078,7 +6080,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20" t="s">
         <v>140</v>
@@ -6102,7 +6104,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>41579</v>
       </c>
@@ -6130,7 +6132,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>41609</v>
       </c>
@@ -6158,7 +6160,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="47" t="s">
         <v>84</v>
       </c>
@@ -6180,7 +6182,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>41640</v>
       </c>
@@ -6204,7 +6206,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>41671</v>
       </c>
@@ -6224,7 +6226,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>41699</v>
       </c>
@@ -6244,7 +6246,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>41730</v>
       </c>
@@ -6270,7 +6272,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>41760</v>
       </c>
@@ -6296,7 +6298,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>41791</v>
       </c>
@@ -6320,7 +6322,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>41821</v>
       </c>
@@ -6340,7 +6342,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>41852</v>
       </c>
@@ -6364,7 +6366,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>41883</v>
       </c>
@@ -6388,7 +6390,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>41913</v>
       </c>
@@ -6412,7 +6414,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>41944</v>
       </c>
@@ -6436,7 +6438,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>41974</v>
       </c>
@@ -6460,7 +6462,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="47" t="s">
         <v>85</v>
       </c>
@@ -6482,7 +6484,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>42005</v>
       </c>
@@ -6506,7 +6508,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>42036</v>
       </c>
@@ -6530,7 +6532,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>42064</v>
       </c>
@@ -6550,7 +6552,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>42095</v>
       </c>
@@ -6574,7 +6576,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>42125</v>
       </c>
@@ -6598,7 +6600,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>161</v>
@@ -6618,7 +6620,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>42156</v>
       </c>
@@ -6638,7 +6640,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>42186</v>
       </c>
@@ -6658,7 +6660,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>42217</v>
       </c>
@@ -6682,7 +6684,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>42248</v>
       </c>
@@ -6706,7 +6708,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>42278</v>
       </c>
@@ -6730,7 +6732,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>42309</v>
       </c>
@@ -6754,7 +6756,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>42339</v>
       </c>
@@ -6778,7 +6780,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="47" t="s">
         <v>86</v>
       </c>
@@ -6800,7 +6802,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>42370</v>
       </c>
@@ -6824,7 +6826,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>42401</v>
       </c>
@@ -6848,7 +6850,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>42430</v>
       </c>
@@ -6868,7 +6870,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>42461</v>
       </c>
@@ -6894,7 +6896,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>42491</v>
       </c>
@@ -6918,7 +6920,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>170</v>
@@ -6938,7 +6940,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>42522</v>
       </c>
@@ -6962,7 +6964,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>42552</v>
       </c>
@@ -6982,7 +6984,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>42583</v>
       </c>
@@ -7006,7 +7008,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>42614</v>
       </c>
@@ -7030,7 +7032,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>42644</v>
       </c>
@@ -7054,7 +7056,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>42675</v>
       </c>
@@ -7078,7 +7080,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>42705</v>
       </c>
@@ -7102,7 +7104,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="47" t="s">
         <v>87</v>
       </c>
@@ -7124,7 +7126,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>42736</v>
       </c>
@@ -7148,7 +7150,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>71</v>
@@ -7170,7 +7172,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>68</v>
@@ -7192,7 +7194,7 @@
         <v>44971</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>180</v>
@@ -7214,7 +7216,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>42767</v>
       </c>
@@ -7238,7 +7240,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>42795</v>
       </c>
@@ -7262,7 +7264,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>42826</v>
       </c>
@@ -7282,7 +7284,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>42856</v>
       </c>
@@ -7302,7 +7304,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>42887</v>
       </c>
@@ -7322,7 +7324,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>42917</v>
       </c>
@@ -7342,7 +7344,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>42948</v>
       </c>
@@ -7366,7 +7368,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>42979</v>
       </c>
@@ -7392,7 +7394,7 @@
         <v>44120</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>188</v>
@@ -7412,7 +7414,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>43009</v>
       </c>
@@ -7436,7 +7438,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>43040</v>
       </c>
@@ -7462,7 +7464,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>43070</v>
       </c>
@@ -7486,7 +7488,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="47" t="s">
         <v>88</v>
       </c>
@@ -7508,7 +7510,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>43101</v>
       </c>
@@ -7528,7 +7530,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>43132</v>
       </c>
@@ -7554,7 +7556,7 @@
         <v>44971</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>43160</v>
       </c>
@@ -7574,7 +7576,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>43191</v>
       </c>
@@ -7594,7 +7596,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>43221</v>
       </c>
@@ -7618,7 +7620,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>51</v>
@@ -7638,7 +7640,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>193</v>
@@ -7658,7 +7660,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>43252</v>
       </c>
@@ -7682,7 +7684,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>43282</v>
       </c>
@@ -7702,7 +7704,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>43313</v>
       </c>
@@ -7726,7 +7728,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>43344</v>
       </c>
@@ -7746,7 +7748,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>43374</v>
       </c>
@@ -7770,7 +7772,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>43405</v>
       </c>
@@ -7790,7 +7792,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>43435</v>
       </c>
@@ -7814,7 +7816,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="47" t="s">
         <v>191</v>
       </c>
@@ -7836,7 +7838,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>43466</v>
       </c>
@@ -7856,7 +7858,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>43497</v>
       </c>
@@ -7876,7 +7878,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>43525</v>
       </c>
@@ -7896,7 +7898,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>43556</v>
       </c>
@@ -7916,7 +7918,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>43586</v>
       </c>
@@ -7942,7 +7944,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>51</v>
@@ -7962,7 +7964,7 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>43617</v>
       </c>
@@ -7982,7 +7984,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>43647</v>
       </c>
@@ -8002,7 +8004,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>43678</v>
       </c>
@@ -8022,7 +8024,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>43709</v>
       </c>
@@ -8042,7 +8044,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>43739</v>
       </c>
@@ -8062,7 +8064,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>43770</v>
       </c>
@@ -8082,7 +8084,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>43800</v>
       </c>
@@ -8106,7 +8108,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="47" t="s">
         <v>200</v>
       </c>
@@ -8124,7 +8126,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>43831</v>
       </c>
@@ -8144,7 +8146,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>43862</v>
       </c>
@@ -8164,7 +8166,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <v>43891</v>
       </c>
@@ -8184,7 +8186,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>43922</v>
       </c>
@@ -8204,7 +8206,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>43952</v>
       </c>
@@ -8224,7 +8226,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>43983</v>
       </c>
@@ -8244,7 +8246,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>44013</v>
       </c>
@@ -8264,7 +8266,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>44044</v>
       </c>
@@ -8284,7 +8286,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>44075</v>
       </c>
@@ -8304,7 +8306,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>44105</v>
       </c>
@@ -8324,7 +8326,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>44136</v>
       </c>
@@ -8344,7 +8346,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>44166</v>
       </c>
@@ -8368,7 +8370,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="47" t="s">
         <v>201</v>
       </c>
@@ -8386,7 +8388,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>44197</v>
       </c>
@@ -8406,7 +8408,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>44228</v>
       </c>
@@ -8426,7 +8428,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <v>44256</v>
       </c>
@@ -8446,7 +8448,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>44287</v>
       </c>
@@ -8466,7 +8468,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <v>44317</v>
       </c>
@@ -8486,7 +8488,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>44348</v>
       </c>
@@ -8506,7 +8508,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>44378</v>
       </c>
@@ -8526,7 +8528,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>44409</v>
       </c>
@@ -8546,7 +8548,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>44440</v>
       </c>
@@ -8566,7 +8568,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>44470</v>
       </c>
@@ -8586,7 +8588,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>44501</v>
       </c>
@@ -8606,7 +8608,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <v>44531</v>
       </c>
@@ -8630,7 +8632,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="47" t="s">
         <v>202</v>
       </c>
@@ -8648,7 +8650,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>44562</v>
       </c>
@@ -8668,7 +8670,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <v>44593</v>
       </c>
@@ -8688,7 +8690,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>44621</v>
       </c>
@@ -8708,7 +8710,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>44652</v>
       </c>
@@ -8728,7 +8730,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>44682</v>
       </c>
@@ -8748,7 +8750,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <v>44713</v>
       </c>
@@ -8768,7 +8770,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <v>44743</v>
       </c>
@@ -8788,7 +8790,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>44774</v>
       </c>
@@ -8808,7 +8810,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>44805</v>
       </c>
@@ -8828,7 +8830,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>44835</v>
       </c>
@@ -8848,7 +8850,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <v>44866</v>
       </c>
@@ -8868,7 +8870,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <v>44896</v>
       </c>
@@ -8892,7 +8894,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="47" t="s">
         <v>203</v>
       </c>
@@ -8910,7 +8912,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>44927</v>
       </c>
@@ -8930,7 +8932,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>44958</v>
       </c>
@@ -8950,7 +8952,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <v>44986</v>
       </c>
@@ -8970,7 +8972,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <v>45017</v>
       </c>
@@ -8990,7 +8992,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>45047</v>
       </c>
@@ -9010,77 +9012,125 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>45078</v>
       </c>
       <c r="B254" s="20"/>
-      <c r="C254" s="13"/>
+      <c r="C254" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D254" s="39"/>
       <c r="E254" s="9"/>
       <c r="F254" s="20"/>
-      <c r="G254" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G254" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H254" s="39"/>
       <c r="I254" s="9"/>
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <v>45108</v>
       </c>
       <c r="B255" s="20"/>
-      <c r="C255" s="13"/>
+      <c r="C255" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D255" s="39"/>
       <c r="E255" s="9"/>
       <c r="F255" s="20"/>
-      <c r="G255" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G255" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H255" s="39"/>
       <c r="I255" s="9"/>
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>45139</v>
       </c>
       <c r="B256" s="15"/>
-      <c r="C256" s="41"/>
+      <c r="C256" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D256" s="42"/>
       <c r="E256" s="9"/>
       <c r="F256" s="15"/>
-      <c r="G256" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G256" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H256" s="42"/>
       <c r="I256" s="9"/>
       <c r="J256" s="12"/>
       <c r="K256" s="15"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>45170</v>
       </c>
       <c r="B257" s="20"/>
-      <c r="C257" s="13"/>
+      <c r="C257" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D257" s="39"/>
       <c r="E257" s="9"/>
       <c r="F257" s="20"/>
-      <c r="G257" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G257" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H257" s="39"/>
       <c r="I257" s="9"/>
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A258" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B258" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C258" s="13"/>
+      <c r="D258" s="39"/>
+      <c r="E258" s="9"/>
+      <c r="F258" s="20"/>
+      <c r="G258" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H258" s="39"/>
+      <c r="I258" s="9"/>
+      <c r="J258" s="11"/>
+      <c r="K258" s="20" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A259" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B259" s="20"/>
+      <c r="C259" s="13"/>
+      <c r="D259" s="39"/>
+      <c r="E259" s="9"/>
+      <c r="F259" s="20"/>
+      <c r="G259" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H259" s="39"/>
+      <c r="I259" s="9"/>
+      <c r="J259" s="11"/>
+      <c r="K259" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -9097,10 +9147,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9123,7 +9173,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -9131,21 +9181,21 @@
       <selection activeCell="G11" sqref="G11:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -9158,7 +9208,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -9187,7 +9237,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>15.515000000000001</v>
       </c>
@@ -9217,17 +9267,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -9248,7 +9298,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -9275,7 +9325,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -9301,7 +9351,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -9327,7 +9377,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -9353,7 +9403,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -9379,7 +9429,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -9405,7 +9455,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -9431,7 +9481,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -9457,7 +9507,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -9477,7 +9527,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -9497,7 +9547,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -9517,7 +9567,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -9538,7 +9588,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -9559,7 +9609,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -9580,7 +9630,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -9601,7 +9651,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -9622,7 +9672,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -9643,7 +9693,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -9664,7 +9714,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -9685,7 +9735,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -9706,7 +9756,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -9727,7 +9777,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -9748,7 +9798,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -9769,7 +9819,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -9790,7 +9840,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -9811,7 +9861,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -9832,7 +9882,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -9853,7 +9903,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -9874,7 +9924,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -9895,7 +9945,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9916,7 +9966,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9937,7 +9987,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9946,7 +9996,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9955,7 +10005,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9964,7 +10014,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9973,7 +10023,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9982,7 +10032,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9991,7 +10041,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -10000,7 +10050,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -10009,7 +10059,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -10018,7 +10068,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -10027,7 +10077,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -10036,7 +10086,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -10045,7 +10095,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -10054,7 +10104,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -10063,7 +10113,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -10072,7 +10122,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -10081,7 +10131,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -10090,7 +10140,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -10099,7 +10149,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -10108,7 +10158,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -10117,7 +10167,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -10126,7 +10176,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -10135,7 +10185,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -10144,7 +10194,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -10153,7 +10203,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -10162,7 +10212,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -10171,7 +10221,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -10180,7 +10230,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -10189,7 +10239,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -10198,7 +10248,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
